--- a/html/resources/aoiConditions/train1Block21.xlsx
+++ b/html/resources/aoiConditions/train1Block21.xlsx
@@ -22,28 +22,28 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/27_pakapa1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/20_tatito1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/23_patoko1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/25_tapapi1.wav</t>
-  </si>
-  <si>
-    <t>pngimages/27_kiwi.png</t>
-  </si>
-  <si>
-    <t>pngimages/20_pizza.png</t>
-  </si>
-  <si>
-    <t>pngimages/23_lemon.png</t>
-  </si>
-  <si>
-    <t>pngimages/25_apple.png</t>
+    <t>trainingaudio/11_tokiko1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/10_tokiti1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/13_kopopi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/17_kotako2.wav</t>
+  </si>
+  <si>
+    <t>pngimages/11_compass.png</t>
+  </si>
+  <si>
+    <t>pngimages/10_backpack.png</t>
+  </si>
+  <si>
+    <t>pngimages/13_toast.png</t>
+  </si>
+  <si>
+    <t>pngimages/17_cracker.png</t>
   </si>
 </sst>
 </file>
